--- a/deployment/Omaha_Cal_Info_CP04OSPM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP04OSPM_00003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP04OSPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="10692" windowWidth="24828" windowHeight="11280" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="10860" yWindow="10695" windowWidth="24825" windowHeight="11280" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
   <si>
     <t>Ref Des</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>Sensor OOIBARCODE</t>
+  </si>
+  <si>
+    <t>OL000252</t>
+  </si>
+  <si>
+    <t>OL000345</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -624,6 +630,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -1024,24 +1033,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="11" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="44" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6">
+    <row r="1" spans="1:14" ht="25.5">
       <c r="A1" s="30" t="s">
         <v>68</v>
       </c>
@@ -1079,7 +1088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1146,21 +1155,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="16" max="16" width="46.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="16" max="16" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
@@ -1218,6 +1227,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="8"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -1246,6 +1256,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -1274,6 +1285,7 @@
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -1304,6 +1316,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="8"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -1334,6 +1347,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="8"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -1364,6 +1378,7 @@
         <v>43</v>
       </c>
       <c r="J7" s="8"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="8" t="s">
@@ -1394,6 +1409,7 @@
         <v>44</v>
       </c>
       <c r="J8" s="8"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -1424,6 +1440,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="8"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="8"/>
@@ -2012,7 +2029,9 @@
       <c r="D33" s="9">
         <v>3</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
       <c r="F33" s="22" t="s">
         <v>63</v>
       </c>
@@ -2048,7 +2067,9 @@
       <c r="D35" s="9">
         <v>3</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
       <c r="F35" s="17" t="s">
         <v>66</v>
       </c>
